--- a/biology/Zoologie/Chrysomela_vigintipunctata/Chrysomela_vigintipunctata.xlsx
+++ b/biology/Zoologie/Chrysomela_vigintipunctata/Chrysomela_vigintipunctata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrysomela vigintipunctata, la Chrysomèle à vingt points (parfois Chrysomèle du saule), est une espèce d'insectes coléoptères de la famille des chrysomélidés et du genre Chrysomela.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Corps long de 5 à 8,5 mm, élytres de couleurs variables, blanchâtres, roses, rougeâtres[1], jaunâtres parsemés de 10 marques noires irrégulières.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Corps long de 5 à 8,5 mm, élytres de couleurs variables, blanchâtres, roses, rougeâtres, jaunâtres parsemés de 10 marques noires irrégulières.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De la France jusqu'au nord de la Russie d'Europe[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De la France jusqu'au nord de la Russie d'Europe.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'adulte visible d'avril à aout se nourrit de fleurs puis de feuilles de divers saules (tout comme la larve). Ils vivent à proximité de l'eau.
 </t>
@@ -604,7 +622,9 @@
           <t>Images transformations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			larve
